--- a/biology/Botanique/Amblystegiaceae/Amblystegiaceae.xlsx
+++ b/biology/Botanique/Amblystegiaceae/Amblystegiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Amblystegiaceae, en français Amblystégiacées, sont une famille de mousses de l'ordre des Hypnales. Elle comprend 37 genres avec un total de 202 espèces[2] présentes dans le monde entier, poussant dans les régions tropicales, tempérées et subpolaires. Amblystegium est le genre type.
-Ces mousses sont petites à grandes et sont de couleur jaune, verte ou brune[3]. Certaines sont aquatiques et d'autres terrestres. La plupart poussent dans des habitats humides. Beaucoup se reproduisent dans des substrats à pH basique, mais certaines poussent dans des substrats neutres voire acides[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Amblystegiaceae, en français Amblystégiacées, sont une famille de mousses de l'ordre des Hypnales. Elle comprend 37 genres avec un total de 202 espèces présentes dans le monde entier, poussant dans les régions tropicales, tempérées et subpolaires. Amblystegium est le genre type.
+Ces mousses sont petites à grandes et sont de couleur jaune, verte ou brune. Certaines sont aquatiques et d'autres terrestres. La plupart poussent dans des habitats humides. Beaucoup se reproduisent dans des substrats à pH basique, mais certaines poussent dans des substrats neutres voire acides. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (16 juin 2020)[1] (attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (16 juin 2020) (attention liste brute contenant possiblement des synonymes) :
 Acrocladium Mitt.
 Amblystegium Schimp.
 Apterygium Kindb.
